--- a/Luban/Config/Datas/Root/Resource.xlsx
+++ b/Luban/Config/Datas/Root/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\Roots\Luban\Config\Datas\Root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A03840-E1DB-4B53-9C63-56570724DB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77570FF-7B03-43E2-839B-DF88559CEEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>list,ResourceTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源图片名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -507,8 +515,11 @@
       <c r="K1" t="s">
         <v>20</v>
       </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -542,8 +553,11 @@
       <c r="K2" t="s">
         <v>28</v>
       </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -576,6 +590,9 @@
       </c>
       <c r="K3" t="s">
         <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/Resource.xlsx
+++ b/Luban/Config/Datas/Root/Resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77570FF-7B03-43E2-839B-DF88559CEEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBF9CCF-F1CD-42D7-BE44-97E3E37F1BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="4365" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Luban/Config/Datas/Root/Resource.xlsx
+++ b/Luban/Config/Datas/Root/Resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBF9CCF-F1CD-42D7-BE44-97E3E37F1BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB600F2-C383-42F7-A6B0-95CAD930BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="4365" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list,Effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsUsable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +144,10 @@
   </si>
   <si>
     <t>资源图片名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,EventEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,7 +504,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -513,10 +513,10 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -539,19 +539,19 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
         <v>2</v>
@@ -562,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -574,25 +574,25 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/Resource.xlsx
+++ b/Luban/Config/Datas/Root/Resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB600F2-C383-42F7-A6B0-95CAD930BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31484A34-7C2E-4264-A521-59A0FA025ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>list,EventEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -518,8 +530,11 @@
       <c r="L1" t="s">
         <v>28</v>
       </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -556,8 +571,11 @@
       <c r="L2" t="s">
         <v>2</v>
       </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -593,6 +611,9 @@
       </c>
       <c r="L3" t="s">
         <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/Resource.xlsx
+++ b/Luban/Config/Datas/Root/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘文韬\Desktop\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31484A34-7C2E-4264-A521-59A0FA025ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C98C64-1124-4897-8861-52DF13F3B543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1512" yWindow="1740" windowWidth="19104" windowHeight="9996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EndingPara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">bool </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list,int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResourceTags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结局参数补正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资源特性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,7 +143,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventCondition</t>
+    <t>(list#sep=;), EventCondition#sep=,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,12 +171,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,8 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,15 +480,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="14.1171875" customWidth="1"/>
+    <col min="9" max="9" width="14.46875" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -516,25 +516,22 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -542,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -554,36 +551,33 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -592,28 +586,25 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/Resource.xlsx
+++ b/Luban/Config/Datas/Root/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘文韬\Desktop\Datas\Root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C98C64-1124-4897-8861-52DF13F3B543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D47CC-AEF1-4B20-9FDA-9C4F74E58119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1512" yWindow="1740" windowWidth="19104" windowHeight="9996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="2595" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>使用条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haobaobei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beibaobao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,20 +492,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="14.1171875" customWidth="1"/>
-    <col min="9" max="9" width="14.46875" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -531,7 +543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -569,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -605,6 +617,29 @@
       </c>
       <c r="L3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/Resource.xlsx
+++ b/Luban/Config/Datas/Root/Resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D47CC-AEF1-4B20-9FDA-9C4F74E58119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F958E-69A5-4F61-B678-47761049358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2595" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="1320" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="136">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,15 +151,384 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>haobaobei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beibaobao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource_1</t>
+    <t>资源id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财力基础物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时修为灵力-初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时修为灵力-中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时修为灵力-高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时神识强度-初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时神识强度-中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时神识强度-高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时博闻灵智-初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时博闻灵智-中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时博闻灵智-高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时修为灵力-非消耗的永久物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时神识强度-非消耗的永久物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时博闻灵智-非消耗的永久物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时福源-初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时福源-中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼气物品初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼气物品中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼气物品高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖气物品初级</t>
+  </si>
+  <si>
+    <t>妖气物品中级</t>
+  </si>
+  <si>
+    <t>妖气物品高级</t>
+  </si>
+  <si>
+    <t>仙力物品初级</t>
+  </si>
+  <si>
+    <t>仙力物品中级</t>
+  </si>
+  <si>
+    <t>仙力物品高级</t>
+  </si>
+  <si>
+    <t>佛光物品初级</t>
+  </si>
+  <si>
+    <t>佛光物品中级</t>
+  </si>
+  <si>
+    <t>佛光物品高级</t>
+  </si>
+  <si>
+    <t>道心养成-鬼气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心养成-妖气</t>
+  </si>
+  <si>
+    <t>道心养成-仙力</t>
+  </si>
+  <si>
+    <t>道心养成-佛光</t>
+  </si>
+  <si>
+    <t>道心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白道种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑道种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图2</t>
+  </si>
+  <si>
+    <t>地图3</t>
+  </si>
+  <si>
+    <t>地图4</t>
+  </si>
+  <si>
+    <t>地图5</t>
+  </si>
+  <si>
+    <t>地图6</t>
+  </si>
+  <si>
+    <t>地图7</t>
+  </si>
+  <si>
+    <t>地图8</t>
+  </si>
+  <si>
+    <t>地图pro1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图pro2</t>
+  </si>
+  <si>
+    <t>地图pro3</t>
+  </si>
+  <si>
+    <t>地图pro4</t>
+  </si>
+  <si>
+    <t>地图pro5</t>
+  </si>
+  <si>
+    <t>地图pro6</t>
+  </si>
+  <si>
+    <t>地图pro7</t>
+  </si>
+  <si>
+    <t>地图pro8</t>
+  </si>
+  <si>
+    <t>地图promax1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图promax2</t>
+  </si>
+  <si>
+    <t>地图promax3</t>
+  </si>
+  <si>
+    <t>地图promax4</t>
+  </si>
+  <si>
+    <t>地图promax5</t>
+  </si>
+  <si>
+    <t>地图promax6</t>
+  </si>
+  <si>
+    <t>地图promax7</t>
+  </si>
+  <si>
+    <t>地图promax8</t>
+  </si>
+  <si>
+    <t>TATTRI,9,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,6,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,6,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,6,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,7,2</t>
+  </si>
+  <si>
+    <t>TATTRI,7,5</t>
+  </si>
+  <si>
+    <t>TATTRI,7,10</t>
+  </si>
+  <si>
+    <t>TATTRI,8,2</t>
+  </si>
+  <si>
+    <t>TATTRI,8,5</t>
+  </si>
+  <si>
+    <t>TATTRI,8,10</t>
+  </si>
+  <si>
+    <t>HEARTGROWTH,5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,6,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,7,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENEVENT,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,1,5;ATTRIMINNEED,2,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,2,5;ATTRIMINNEED,3,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,1,5;ATTRIMINNEED,3,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,21,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,22,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,26,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,27,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,31,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,32,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,36,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,37,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +536,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +551,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +570,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,9 +598,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -492,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -624,22 +1019,1700 @@
         <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35">
         <v>32</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>33</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>117</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>118</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J46" t="s">
+        <v>121</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" t="s">
+        <v>121</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" t="s">
+        <v>122</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J49" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J50" t="s">
+        <v>122</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J52" t="s">
+        <v>123</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J53" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J54" t="s">
+        <v>124</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J55" t="s">
+        <v>124</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" t="s">
+        <v>125</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" t="s">
+        <v>125</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J58" t="s">
+        <v>126</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J59" t="s">
+        <v>126</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J61" t="s">
+        <v>125</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J62" t="s">
+        <v>127</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J63" t="s">
+        <v>128</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64" t="s">
+        <v>129</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J65" t="s">
+        <v>130</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J66" t="s">
+        <v>131</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J67" t="s">
+        <v>132</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J68" t="s">
+        <v>133</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J69" t="s">
+        <v>134</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/Resource.xlsx
+++ b/Luban/Config/Datas/Root/Resource.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘文韬\Desktop\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F958E-69A5-4F61-B678-47761049358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3B73B-5D0B-413E-9368-C83566C2437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="1320" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +363,10 @@
     <t>地图promax8</t>
   </si>
   <si>
+    <t>USEHEART,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TATTRI,9,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OPENEVENT,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATTRIMINNEED,1,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,15 +537,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TATTRI,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>OPENEVENT,119,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,120,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,121,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,122,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,123,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,124,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,125,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,126,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,127,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,128,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,129,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,130,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,131,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,132,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,133,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,134,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,135,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,136,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,137,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,138,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,139,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,140,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,141,0</t>
+  </si>
+  <si>
+    <t>OPENEVENT,142,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,16 +628,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,18 +639,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,15 +655,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -889,18 +940,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -938,7 +990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -976,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1034,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1054,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1071,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1094,13 +1146,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1117,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -1126,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1143,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1152,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1169,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1178,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1195,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1204,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1221,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1230,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1247,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1256,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1273,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -1282,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1299,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1308,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1325,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -1334,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1351,13 +1403,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1374,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1397,13 +1449,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1420,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1429,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -1446,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1455,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
@@ -1472,13 +1524,13 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -1495,13 +1547,13 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
@@ -1518,13 +1570,13 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
@@ -1541,13 +1593,13 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
@@ -1564,13 +1616,13 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
@@ -1587,13 +1639,13 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
@@ -1610,13 +1662,13 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
@@ -1633,13 +1685,13 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
@@ -1656,13 +1708,13 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
@@ -1679,13 +1731,13 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
@@ -1702,13 +1754,13 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>30</v>
       </c>
@@ -1725,13 +1777,13 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>31</v>
       </c>
@@ -1748,13 +1800,13 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>32</v>
       </c>
@@ -1771,13 +1823,13 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>33</v>
       </c>
@@ -1794,13 +1846,13 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>34</v>
       </c>
@@ -1817,13 +1869,13 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>35</v>
       </c>
@@ -1840,13 +1892,13 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>36</v>
       </c>
@@ -1863,13 +1915,13 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>37</v>
       </c>
@@ -1886,13 +1938,13 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>38</v>
       </c>
@@ -1909,13 +1961,13 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>39</v>
       </c>
@@ -1935,13 +1987,13 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>40</v>
       </c>
@@ -1961,13 +2013,13 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>41</v>
       </c>
@@ -1987,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>42</v>
       </c>
@@ -2013,13 +2065,13 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>43</v>
       </c>
@@ -2038,8 +2090,8 @@
       <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>120</v>
+      <c r="I46" t="s">
+        <v>135</v>
       </c>
       <c r="J46" t="s">
         <v>121</v>
@@ -2048,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>44</v>
       </c>
@@ -2067,8 +2119,8 @@
       <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>120</v>
+      <c r="I47" t="s">
+        <v>136</v>
       </c>
       <c r="J47" t="s">
         <v>121</v>
@@ -2077,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45</v>
       </c>
@@ -2096,8 +2148,8 @@
       <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>120</v>
+      <c r="I48" t="s">
+        <v>137</v>
       </c>
       <c r="J48" t="s">
         <v>122</v>
@@ -2106,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>46</v>
       </c>
@@ -2125,8 +2177,8 @@
       <c r="H49" t="b">
         <v>1</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>120</v>
+      <c r="I49" t="s">
+        <v>138</v>
       </c>
       <c r="J49" t="s">
         <v>122</v>
@@ -2135,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>47</v>
       </c>
@@ -2154,8 +2206,8 @@
       <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>120</v>
+      <c r="I50" t="s">
+        <v>139</v>
       </c>
       <c r="J50" t="s">
         <v>122</v>
@@ -2164,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>48</v>
       </c>
@@ -2183,8 +2235,8 @@
       <c r="H51" t="b">
         <v>1</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>120</v>
+      <c r="I51" t="s">
+        <v>140</v>
       </c>
       <c r="J51" t="s">
         <v>123</v>
@@ -2193,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>49</v>
       </c>
@@ -2212,8 +2264,8 @@
       <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>120</v>
+      <c r="I52" t="s">
+        <v>141</v>
       </c>
       <c r="J52" t="s">
         <v>123</v>
@@ -2222,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>50</v>
       </c>
@@ -2241,8 +2293,8 @@
       <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>120</v>
+      <c r="I53" t="s">
+        <v>142</v>
       </c>
       <c r="J53" t="s">
         <v>123</v>
@@ -2251,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>51</v>
       </c>
@@ -2270,8 +2322,8 @@
       <c r="H54" t="b">
         <v>1</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>120</v>
+      <c r="I54" t="s">
+        <v>143</v>
       </c>
       <c r="J54" t="s">
         <v>124</v>
@@ -2280,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>52</v>
       </c>
@@ -2299,8 +2351,8 @@
       <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>120</v>
+      <c r="I55" t="s">
+        <v>144</v>
       </c>
       <c r="J55" t="s">
         <v>124</v>
@@ -2309,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>53</v>
       </c>
@@ -2328,8 +2380,8 @@
       <c r="H56" t="b">
         <v>1</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>120</v>
+      <c r="I56" t="s">
+        <v>145</v>
       </c>
       <c r="J56" t="s">
         <v>125</v>
@@ -2338,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>54</v>
       </c>
@@ -2357,8 +2409,8 @@
       <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>120</v>
+      <c r="I57" t="s">
+        <v>146</v>
       </c>
       <c r="J57" t="s">
         <v>125</v>
@@ -2367,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>55</v>
       </c>
@@ -2386,8 +2438,8 @@
       <c r="H58" t="b">
         <v>1</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>120</v>
+      <c r="I58" t="s">
+        <v>147</v>
       </c>
       <c r="J58" t="s">
         <v>126</v>
@@ -2396,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>56</v>
       </c>
@@ -2415,8 +2467,8 @@
       <c r="H59" t="b">
         <v>1</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>120</v>
+      <c r="I59" t="s">
+        <v>148</v>
       </c>
       <c r="J59" t="s">
         <v>126</v>
@@ -2425,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>57</v>
       </c>
@@ -2444,8 +2496,8 @@
       <c r="H60" t="b">
         <v>1</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>120</v>
+      <c r="I60" t="s">
+        <v>149</v>
       </c>
       <c r="J60" t="s">
         <v>125</v>
@@ -2454,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>58</v>
       </c>
@@ -2473,8 +2525,8 @@
       <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>120</v>
+      <c r="I61" t="s">
+        <v>150</v>
       </c>
       <c r="J61" t="s">
         <v>125</v>
@@ -2483,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>59</v>
       </c>
@@ -2502,8 +2554,8 @@
       <c r="H62" t="b">
         <v>1</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>120</v>
+      <c r="I62" t="s">
+        <v>151</v>
       </c>
       <c r="J62" t="s">
         <v>127</v>
@@ -2512,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>60</v>
       </c>
@@ -2531,8 +2583,8 @@
       <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>120</v>
+      <c r="I63" t="s">
+        <v>152</v>
       </c>
       <c r="J63" t="s">
         <v>128</v>
@@ -2541,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>61</v>
       </c>
@@ -2560,8 +2612,8 @@
       <c r="H64" t="b">
         <v>1</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>120</v>
+      <c r="I64" t="s">
+        <v>153</v>
       </c>
       <c r="J64" t="s">
         <v>129</v>
@@ -2570,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>62</v>
       </c>
@@ -2589,8 +2641,8 @@
       <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>120</v>
+      <c r="I65" t="s">
+        <v>154</v>
       </c>
       <c r="J65" t="s">
         <v>130</v>
@@ -2599,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>63</v>
       </c>
@@ -2618,8 +2670,8 @@
       <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>120</v>
+      <c r="I66" t="s">
+        <v>155</v>
       </c>
       <c r="J66" t="s">
         <v>131</v>
@@ -2628,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>64</v>
       </c>
@@ -2647,8 +2699,8 @@
       <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>120</v>
+      <c r="I67" t="s">
+        <v>156</v>
       </c>
       <c r="J67" t="s">
         <v>132</v>
@@ -2657,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>65</v>
       </c>
@@ -2676,8 +2728,8 @@
       <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>120</v>
+      <c r="I68" t="s">
+        <v>157</v>
       </c>
       <c r="J68" t="s">
         <v>133</v>
@@ -2686,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>66</v>
       </c>
@@ -2705,8 +2757,8 @@
       <c r="H69" t="b">
         <v>1</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>120</v>
+      <c r="I69" t="s">
+        <v>158</v>
       </c>
       <c r="J69" t="s">
         <v>134</v>

--- a/Luban/Config/Datas/Root/Resource.xlsx
+++ b/Luban/Config/Datas/Root/Resource.xlsx
@@ -1,635 +1,798 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘文韬\Desktop\Datas\Root\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3B73B-5D0B-413E-9368-C83566C2437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="202">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>ResourceId</t>
+  </si>
+  <si>
+    <t>IsInherit</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ResourceType</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>IsUsable</t>
+  </si>
+  <si>
+    <t>UsedEffect</t>
+  </si>
+  <si>
+    <t>UseCondition</t>
+  </si>
+  <si>
+    <t>ResourceTags</t>
+  </si>
+  <si>
+    <t>ResourceImage</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool </t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>list,EventEffect</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>(list#sep=;), EventCondition#sep=,</t>
+  </si>
+  <si>
+    <t>list,ResourceTag</t>
+  </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源id</t>
+  </si>
+  <si>
+    <t>是否继承</t>
+  </si>
+  <si>
+    <t>描述</t>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsInherit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsedEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">bool </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsUsable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceTags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>资源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否继承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用条件</t>
   </si>
   <si>
     <t>资源特性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,ResourceTag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>资源图片名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,EventEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;), EventCondition#sep=,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财力基础物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时修为灵力-初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时修为灵力-中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时修为灵力-高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时神识强度-初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时神识强度-中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时神识强度-高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时博闻灵智-初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时博闻灵智-中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时博闻灵智-高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时修为灵力-非消耗的永久物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时神识强度-非消耗的永久物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时博闻灵智-非消耗的永久物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时福源-初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时福源-中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼气物品初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼气物品中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼气物品高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖气物品初级</t>
-  </si>
-  <si>
-    <t>妖气物品中级</t>
-  </si>
-  <si>
-    <t>妖气物品高级</t>
-  </si>
-  <si>
-    <t>仙力物品初级</t>
-  </si>
-  <si>
-    <t>仙力物品中级</t>
-  </si>
-  <si>
-    <t>仙力物品高级</t>
-  </si>
-  <si>
-    <t>佛光物品初级</t>
-  </si>
-  <si>
-    <t>佛光物品中级</t>
-  </si>
-  <si>
-    <t>佛光物品高级</t>
+  </si>
+  <si>
+    <t>白道种</t>
+  </si>
+  <si>
+    <t>黑道种</t>
+  </si>
+  <si>
+    <t>道心</t>
+  </si>
+  <si>
+    <t>USEHEART,0,0</t>
+  </si>
+  <si>
+    <t>凡间通用的流通货币。</t>
+  </si>
+  <si>
+    <t>乾坤宝钱</t>
+  </si>
+  <si>
+    <t>TATTRI,9,1</t>
+  </si>
+  <si>
+    <t>由天地灵力凝结而成水，将身体浸入其中，可提升灵力。</t>
+  </si>
+  <si>
+    <t>聚灵水</t>
+  </si>
+  <si>
+    <t>TATTRI,1,1</t>
+  </si>
+  <si>
+    <t>内涵大量灵力的天然矿石，握于手中吸收修炼，有助于灵力提升。</t>
+  </si>
+  <si>
+    <t>五彩灵石</t>
+  </si>
+  <si>
+    <t>TATTRI,1,3</t>
+  </si>
+  <si>
+    <t>据说这是一枚仙家丹药，仅仅握于手中就能感受到灵力缓缓提升，食用后可提高灵力。</t>
+  </si>
+  <si>
+    <t>罗厄丹</t>
+  </si>
+  <si>
+    <t>TATTRI,1,5</t>
+  </si>
+  <si>
+    <t>原本洁白的灵果，被一对有情人的鲜血所染红。传说这对同命鸳鸯的冤魂被困在这灵果中无法散去。食用后可提升神识强度。</t>
+  </si>
+  <si>
+    <t>绯红灵果</t>
+  </si>
+  <si>
+    <t>TATTRI,2,1</t>
+  </si>
+  <si>
+    <t>传说中飞升者才会使用的香，点燃用于修炼，可提升神识强度。</t>
+  </si>
+  <si>
+    <t>凝神香</t>
+  </si>
+  <si>
+    <t>TATTRI,2,3</t>
+  </si>
+  <si>
+    <t>生长在凡人界最高峰顶的花，形似百盏灯，琉璃若火。长年吸收凡人界地脉之力，脆弱的花蕊内隐藏着巨大的力量。食用后可提升神识。</t>
+  </si>
+  <si>
+    <t>百盏琉璃花</t>
+  </si>
+  <si>
+    <t>TATTRI,2,5</t>
+  </si>
+  <si>
+    <t>罕见的石莲，具有明心见智之功效，食用后可提高灵智。</t>
+  </si>
+  <si>
+    <t>墨莲</t>
+  </si>
+  <si>
+    <t>TATTRI,3,1</t>
+  </si>
+  <si>
+    <t>不知曾经哪位皇帝向上仙求来的仙草，磨碎敷与眼后可暂开天眼，观世间奇事，提升灵智。</t>
+  </si>
+  <si>
+    <t>观世藤</t>
+  </si>
+  <si>
+    <t>TATTRI,3,3</t>
+  </si>
+  <si>
+    <t>曾有奇人，以肉体凡胎走遍凡间每一丈土地。后修真有成，白日飞升。无字奇闻录记载着这位奇人的所见所闻，但此书只能观看一次，看一页，少一页。待全书看完，就会沦为无字的普通书册。观此书可极大提升灵智。</t>
+  </si>
+  <si>
+    <t>无字奇闻录</t>
+  </si>
+  <si>
+    <t>TATTRI,3,5</t>
+  </si>
+  <si>
+    <t>千年前一位大将的遗物。此大将曾在善恶之战中，以凡人之躯剑指飞升修者的将军，临死前将自己的毕生修为封入随身的护心镜中。</t>
+  </si>
+  <si>
+    <t>镇绥护心镜</t>
+  </si>
+  <si>
+    <t>TATTRI,1,2</t>
+  </si>
+  <si>
+    <t>无名修真者的本命武器，刀上的裂痕与血迹宣誓着武器主人的命运。</t>
+  </si>
+  <si>
+    <t>湮灭之刃</t>
+  </si>
+  <si>
+    <t>TATTRI,2,2</t>
+  </si>
+  <si>
+    <t>千年前飞升之人大战遗落的法器，据说修为高强之人戴上后灵智可通天地。</t>
+  </si>
+  <si>
+    <t>通天帽</t>
+  </si>
+  <si>
+    <t>TATTRI,3,2</t>
+  </si>
+  <si>
+    <t>葬于帝王墓穴中的玉佩，千百年来吸收龙脉国运，具有福源加持之能。</t>
+  </si>
+  <si>
+    <t>帝王玉佩</t>
+  </si>
+  <si>
+    <t>TATTRI,4,1</t>
+  </si>
+  <si>
+    <t>由天外陨石打造而成的钱币，曾被仙帝赐福，携带者遇事无往不利。</t>
+  </si>
+  <si>
+    <t>天宝铜钱</t>
+  </si>
+  <si>
+    <t>至阴之地所孕育出的奇石，由阴寒之力凝结而成。</t>
+  </si>
+  <si>
+    <t>玄阴石</t>
+  </si>
+  <si>
+    <t>TATTRI,5,2</t>
+  </si>
+  <si>
+    <t>凝练数千小鬼魂魄制成的符咒，传说在鬼修身上也是难得的宝物。</t>
+  </si>
+  <si>
+    <t>凝魂符咒</t>
+  </si>
+  <si>
+    <t>风水宝地上尸变的尸体，长年吸收灵气却蕴而不发。</t>
+  </si>
+  <si>
+    <t>血尸</t>
+  </si>
+  <si>
+    <t>TATTRI,5,5</t>
+  </si>
+  <si>
+    <t>含恨而死的帝王灵魂，百炼成晶。不但阴气旺盛，而且具有强盛的帝王之力。</t>
+  </si>
+  <si>
+    <t>帝王魂晶</t>
+  </si>
+  <si>
+    <t>传说彼岸花是开放在奈何桥彼端的花朵，本是稀罕之物。而阴阳彼岸花更是只有在天地阴阳交汇之处，才有极低概率生长而出。</t>
+  </si>
+  <si>
+    <t>阴阳彼岸花</t>
+  </si>
+  <si>
+    <t>TATTRI,5,10</t>
+  </si>
+  <si>
+    <t>在碧蓝之森深处才能采集到的灵气。</t>
+  </si>
+  <si>
+    <t>玄木灵气</t>
+  </si>
+  <si>
+    <t>TATTRI,6,2</t>
+  </si>
+  <si>
+    <t>幻蝶是一种可以让人沉迷如梦的妖蝶，世间罕见。</t>
+  </si>
+  <si>
+    <t>幻蝶翅膀</t>
+  </si>
+  <si>
+    <t>寿命超过千年的妖兽心脏。</t>
+  </si>
+  <si>
+    <t>千年兽心</t>
+  </si>
+  <si>
+    <t>TATTRI,6,5</t>
+  </si>
+  <si>
+    <t>古代神话中的神兽獬豸之骨，此物只存在于传说中却无人见过。</t>
+  </si>
+  <si>
+    <t>獬豸妖骨</t>
+  </si>
+  <si>
+    <t>神兽凤凰的精血，蕴藏着世间最高品质的妖灵之力。</t>
+  </si>
+  <si>
+    <t>凤凰精血</t>
+  </si>
+  <si>
+    <t>TATTRI,6,10</t>
+  </si>
+  <si>
+    <t>世间唯一能让冰火共存的神水，是仙家炼制丹药梦寐以求的圣品。</t>
+  </si>
+  <si>
+    <t>冰火泉水</t>
+  </si>
+  <si>
+    <t>TATTRI,7,2</t>
+  </si>
+  <si>
+    <t>来历不明的手环，深黑色的环体上隐约可见一只魔鲸缓缓流动。</t>
+  </si>
+  <si>
+    <t>昊天手环</t>
+  </si>
+  <si>
+    <t>曾经用以镇压鬼道巨恶的上品仙器，千年前善恶之战后不知所踪。</t>
+  </si>
+  <si>
+    <t>诛邪剑</t>
+  </si>
+  <si>
+    <t>TATTRI,7,5</t>
+  </si>
+  <si>
+    <t>蕴含雷劫之力的种子，仅仅是看着就能感受到其中散发的毁灭气息。</t>
+  </si>
+  <si>
+    <t>凌霄雷种</t>
+  </si>
+  <si>
+    <t>由三清之气炼制而成，即使放在飞升之人手中也非常珍贵的修炼至宝。</t>
+  </si>
+  <si>
+    <t>混元金丹</t>
+  </si>
+  <si>
+    <t>TATTRI,7,10</t>
+  </si>
+  <si>
+    <t>佛家密藏，菩萨宣说佛祖圆觉的妙理和观行方法。</t>
+  </si>
+  <si>
+    <t>圆觉经</t>
+  </si>
+  <si>
+    <t>TATTRI,8,2</t>
+  </si>
+  <si>
+    <t>佛陀飞升前坐禅的蒲团，座上可悟佛家至理。</t>
+  </si>
+  <si>
+    <t>玉净蒲团</t>
+  </si>
+  <si>
+    <t>传说曾是佛祖手握的念珠，每日受佛祖佛法熏陶，产生了灵性。</t>
+  </si>
+  <si>
+    <t>凝光念珠</t>
+  </si>
+  <si>
+    <t>TATTRI,8,5</t>
+  </si>
+  <si>
+    <t>佛陀圆寂时体内留下的舍利，蕴含佛陀毕生佛法精华。</t>
+  </si>
+  <si>
+    <t>佛舍利</t>
+  </si>
+  <si>
+    <t>佛道不传之秘，观此书者，可果满成佛。</t>
+  </si>
+  <si>
+    <t>无量寿经</t>
+  </si>
+  <si>
+    <t>TATTRI,8,10</t>
   </si>
   <si>
     <t>道心养成-鬼气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,5,1</t>
   </si>
   <si>
     <t>道心养成-妖气</t>
   </si>
   <si>
+    <t>HEARTGROWTH,6,1</t>
+  </si>
+  <si>
     <t>道心养成-仙力</t>
   </si>
   <si>
+    <t>HEARTGROWTH,7,1</t>
+  </si>
+  <si>
     <t>道心养成-佛光</t>
   </si>
   <si>
-    <t>道心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白道种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑道种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>HEARTGROWTH,8,1</t>
   </si>
   <si>
     <t>地图1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENEVENT,119,0</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,1,3</t>
   </si>
   <si>
     <t>地图2</t>
   </si>
   <si>
+    <t>OPENEVENT,120,0</t>
+  </si>
+  <si>
     <t>地图3</t>
   </si>
   <si>
+    <t>OPENEVENT,121,0</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,2,3</t>
+  </si>
+  <si>
     <t>地图4</t>
   </si>
   <si>
+    <t>OPENEVENT,122,0</t>
+  </si>
+  <si>
     <t>地图5</t>
   </si>
   <si>
+    <t>OPENEVENT,123,0</t>
+  </si>
+  <si>
     <t>地图6</t>
   </si>
   <si>
+    <t>OPENEVENT,124,0</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,3,3</t>
+  </si>
+  <si>
     <t>地图7</t>
   </si>
   <si>
+    <t>OPENEVENT,125,0</t>
+  </si>
+  <si>
     <t>地图8</t>
   </si>
   <si>
+    <t>OPENEVENT,126,0</t>
+  </si>
+  <si>
     <t>地图pro1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENEVENT,127,0</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,1,5;ATTRIMINNEED,2,8</t>
   </si>
   <si>
     <t>地图pro2</t>
   </si>
   <si>
+    <t>OPENEVENT,128,0</t>
+  </si>
+  <si>
     <t>地图pro3</t>
   </si>
   <si>
+    <t>OPENEVENT,129,0</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,2,5;ATTRIMINNEED,3,8</t>
+  </si>
+  <si>
     <t>地图pro4</t>
   </si>
   <si>
+    <t>OPENEVENT,130,0</t>
+  </si>
+  <si>
     <t>地图pro5</t>
   </si>
   <si>
+    <t>OPENEVENT,131,0</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,1,5;ATTRIMINNEED,3,8</t>
+  </si>
+  <si>
     <t>地图pro6</t>
   </si>
   <si>
+    <t>OPENEVENT,132,0</t>
+  </si>
+  <si>
     <t>地图pro7</t>
   </si>
   <si>
+    <t>OPENEVENT,133,0</t>
+  </si>
+  <si>
     <t>地图pro8</t>
   </si>
   <si>
+    <t>OPENEVENT,134,0</t>
+  </si>
+  <si>
     <t>地图promax1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENEVENT,135,0</t>
+  </si>
+  <si>
+    <t>HAVERES,21,0</t>
   </si>
   <si>
     <t>地图promax2</t>
   </si>
   <si>
+    <t>OPENEVENT,136,0</t>
+  </si>
+  <si>
+    <t>HAVERES,22,0</t>
+  </si>
+  <si>
     <t>地图promax3</t>
   </si>
   <si>
+    <t>OPENEVENT,137,0</t>
+  </si>
+  <si>
+    <t>HAVERES,26,0</t>
+  </si>
+  <si>
     <t>地图promax4</t>
   </si>
   <si>
+    <t>OPENEVENT,138,0</t>
+  </si>
+  <si>
+    <t>HAVERES,27,0</t>
+  </si>
+  <si>
     <t>地图promax5</t>
   </si>
   <si>
+    <t>OPENEVENT,139,0</t>
+  </si>
+  <si>
+    <t>HAVERES,31,0</t>
+  </si>
+  <si>
     <t>地图promax6</t>
   </si>
   <si>
+    <t>OPENEVENT,140,0</t>
+  </si>
+  <si>
+    <t>HAVERES,32,0</t>
+  </si>
+  <si>
     <t>地图promax7</t>
   </si>
   <si>
+    <t>OPENEVENT,141,0</t>
+  </si>
+  <si>
+    <t>HAVERES,36,0</t>
+  </si>
+  <si>
     <t>地图promax8</t>
   </si>
   <si>
-    <t>USEHEART,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,9,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,1,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,2,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,3,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,4,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,5,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,5,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,6,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,6,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,6,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TATTRI,7,2</t>
-  </si>
-  <si>
-    <t>TATTRI,7,5</t>
-  </si>
-  <si>
-    <t>TATTRI,7,10</t>
-  </si>
-  <si>
-    <t>TATTRI,8,2</t>
-  </si>
-  <si>
-    <t>TATTRI,8,5</t>
-  </si>
-  <si>
-    <t>TATTRI,8,10</t>
-  </si>
-  <si>
-    <t>HEARTGROWTH,5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEARTGROWTH,6,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEARTGROWTH,7,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEARTGROWTH,8,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,1,5;ATTRIMINNEED,2,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,2,5;ATTRIMINNEED,3,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,1,5;ATTRIMINNEED,3,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,21,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,22,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,26,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,27,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,31,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,32,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,36,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>OPENEVENT,142,0</t>
   </si>
   <si>
     <t>HAVERES,37,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPENEVENT,119,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,120,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,121,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,122,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,123,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,124,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,125,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,126,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,127,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,128,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,129,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,130,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,131,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,132,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,133,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,134,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,135,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,136,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,137,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,138,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,139,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,140,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,141,0</t>
-  </si>
-  <si>
-    <t>OPENEVENT,142,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,8 +805,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -651,25 +1000,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -718,7 +1353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -753,7 +1388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -927,146 +1562,142 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="14.1083333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1074,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1086,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1094,10 +1725,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1106,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1114,22 +1745,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1137,22 +1768,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1160,16 +1791,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -1178,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1186,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1204,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1212,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1230,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1238,16 +1869,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1256,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1264,16 +1895,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1282,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1290,16 +1921,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1308,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1316,16 +1947,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -1334,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1342,16 +1973,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1360,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1368,16 +1999,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -1386,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1394,22 +2025,22 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1417,22 +2048,22 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1440,22 +2071,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1463,16 +2094,16 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1481,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21">
         <v>18</v>
       </c>
@@ -1489,16 +2120,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1507,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22">
         <v>19</v>
       </c>
@@ -1515,22 +2146,22 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23">
         <v>20</v>
       </c>
@@ -1538,22 +2169,22 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24">
         <v>21</v>
       </c>
@@ -1561,22 +2192,22 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25">
         <v>22</v>
       </c>
@@ -1584,22 +2215,22 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26">
         <v>23</v>
       </c>
@@ -1607,22 +2238,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27">
         <v>24</v>
       </c>
@@ -1630,22 +2261,22 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28">
         <v>25</v>
       </c>
@@ -1653,22 +2284,22 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29">
         <v>26</v>
       </c>
@@ -1676,22 +2307,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30">
         <v>27</v>
       </c>
@@ -1699,22 +2330,22 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31">
         <v>28</v>
       </c>
@@ -1722,22 +2353,22 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32">
         <v>29</v>
       </c>
@@ -1745,22 +2376,22 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33">
         <v>30</v>
       </c>
@@ -1768,22 +2399,22 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8">
       <c r="B34">
         <v>31</v>
       </c>
@@ -1791,22 +2422,22 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35">
         <v>32</v>
       </c>
@@ -1814,22 +2445,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8">
       <c r="B36">
         <v>33</v>
       </c>
@@ -1837,22 +2468,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="B37">
         <v>34</v>
       </c>
@@ -1860,22 +2491,22 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8">
       <c r="B38">
         <v>35</v>
       </c>
@@ -1883,22 +2514,22 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8">
       <c r="B39">
         <v>36</v>
       </c>
@@ -1906,22 +2537,22 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8">
       <c r="B40">
         <v>37</v>
       </c>
@@ -1929,22 +2560,22 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8">
       <c r="B41">
         <v>38</v>
       </c>
@@ -1952,22 +2583,22 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11">
       <c r="B42">
         <v>39</v>
       </c>
@@ -1975,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1987,13 +2618,13 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11">
       <c r="B43">
         <v>40</v>
       </c>
@@ -2001,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -2013,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11">
       <c r="B44">
         <v>41</v>
       </c>
@@ -2027,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -2039,13 +2670,13 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11">
       <c r="B45">
         <v>42</v>
       </c>
@@ -2053,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -2065,13 +2696,13 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11">
       <c r="B46">
         <v>43</v>
       </c>
@@ -2079,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -2091,16 +2722,16 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J46" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11">
       <c r="B47">
         <v>44</v>
       </c>
@@ -2108,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -2120,16 +2751,16 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11">
       <c r="B48">
         <v>45</v>
       </c>
@@ -2137,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -2149,16 +2780,16 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="J48" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11">
       <c r="B49">
         <v>46</v>
       </c>
@@ -2166,10 +2797,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -2178,16 +2809,16 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J49" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11">
       <c r="B50">
         <v>47</v>
       </c>
@@ -2195,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -2207,16 +2838,16 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J50" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11">
       <c r="B51">
         <v>48</v>
       </c>
@@ -2224,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -2236,16 +2867,16 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11">
       <c r="B52">
         <v>49</v>
       </c>
@@ -2253,10 +2884,10 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -2265,16 +2896,16 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J52" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11">
       <c r="B53">
         <v>50</v>
       </c>
@@ -2282,10 +2913,10 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -2294,16 +2925,16 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J53" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11">
       <c r="B54">
         <v>51</v>
       </c>
@@ -2311,10 +2942,10 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -2323,16 +2954,16 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="J54" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11">
       <c r="B55">
         <v>52</v>
       </c>
@@ -2340,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2352,16 +2983,16 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="J55" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11">
       <c r="B56">
         <v>53</v>
       </c>
@@ -2369,10 +3000,10 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -2381,16 +3012,16 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J56" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11">
       <c r="B57">
         <v>54</v>
       </c>
@@ -2398,10 +3029,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -2410,16 +3041,16 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="J57" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11">
       <c r="B58">
         <v>55</v>
       </c>
@@ -2427,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="F58">
         <v>6</v>
@@ -2439,16 +3070,16 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="J58" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11">
       <c r="B59">
         <v>56</v>
       </c>
@@ -2456,10 +3087,10 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -2468,16 +3099,16 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J59" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11">
       <c r="B60">
         <v>57</v>
       </c>
@@ -2485,10 +3116,10 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="E60" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="F60">
         <v>6</v>
@@ -2497,16 +3128,16 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11">
       <c r="B61">
         <v>58</v>
       </c>
@@ -2514,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -2526,16 +3157,16 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11">
       <c r="B62">
         <v>59</v>
       </c>
@@ -2543,10 +3174,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -2555,16 +3186,16 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="J62" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11">
       <c r="B63">
         <v>60</v>
       </c>
@@ -2572,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -2584,16 +3215,16 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="J63" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11">
       <c r="B64">
         <v>61</v>
       </c>
@@ -2601,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="E64" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2613,16 +3244,16 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J64" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11">
       <c r="B65">
         <v>62</v>
       </c>
@@ -2630,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -2642,16 +3273,16 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J65" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11">
       <c r="B66">
         <v>63</v>
       </c>
@@ -2659,10 +3290,10 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="E66" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -2671,16 +3302,16 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11">
       <c r="B67">
         <v>64</v>
       </c>
@@ -2688,10 +3319,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E67" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -2700,16 +3331,16 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="J67" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11">
       <c r="B68">
         <v>65</v>
       </c>
@@ -2717,10 +3348,10 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="E68" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="F68">
         <v>6</v>
@@ -2729,16 +3360,16 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="J68" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11">
       <c r="B69">
         <v>66</v>
       </c>
@@ -2746,10 +3377,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -2758,17 +3389,17 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="J69" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>